--- a/WebApplication1/App_Data/Docs/DOC_20251114141147809CE9J.xlsx
+++ b/WebApplication1/App_Data/Docs/DOC_20251114141147809CE9J.xlsx
@@ -41,19 +41,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="18"/>
-        <x:color theme="1"/>
-        <x:rFont val="굴림체"/>
-        <x:family val="3"/>
-        <x:charset val="129"/>
-      </x:rPr>
-      <x:t>주  요  업  무  보  고  서</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
+    <x:t xml:space="preserve">1, 2, 3, 4, 5, 6, 7, 8, 9, 10, A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U, V, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>APPROVED 2025-12-02 11:52 / 최원석</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -107,20 +98,6 @@
         <x:family val="3"/>
         <x:charset val="129"/>
       </x:rPr>
-      <x:t>비  고</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="굴림체"/>
-        <x:family val="3"/>
-        <x:charset val="129"/>
-      </x:rPr>
       <x:t xml:space="preserve">주요
 진행
 업무</x:t>
@@ -156,6 +133,29 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
+    <x:t>W, X, Y, Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234567890가나다라마바사아자차카타파하ABCDEFGHIJKLMNOPQRSTUVWXYZ1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>567890</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="굴림체"/>
+        <x:family val="3"/>
+        <x:charset val="129"/>
+      </x:rPr>
+      <x:t>비  고</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:vertAlign val="baseline"/>
@@ -169,9 +169,6 @@
 업무</x:t>
     </x:r>
     <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1, 2, 3, 4, 5, 6, 7, 8, 9, 10, A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U, V, </x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -188,15 +185,6 @@
     </x:r>
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
-  <x:si>
-    <x:t>W, X, Y, Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1234567890가나다라마바사아자차카타파하ABCDEFGHIJKLMNOPQRSTUVWXYZ1234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>567890</x:t>
-  </x:si>
 </x:sst>
 </file>
 
@@ -207,7 +195,7 @@
     <x:numFmt numFmtId="177" formatCode="\ @"/>
     <x:numFmt numFmtId="178" formatCode="yyyy-MM-dd"/>
   </x:numFmts>
-  <x:fonts count="14" x14ac:knownFonts="1">
+  <x:fonts count="15" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="10"/>
       <x:name val="바탕체"/>
@@ -305,16 +293,30 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="14"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="굴림체"/>
+      <x:family val="3"/>
+      <x:charset val="129"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF90EE90"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="39">
+  <x:borders count="40">
     <x:border>
       <x:left/>
       <x:right/>
@@ -808,8 +810,25 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="60">
+  <x:cellStyleXfs count="61">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -990,8 +1009,11 @@
     <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="2" borderId="39" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="70">
+  <x:cellXfs count="71">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -1231,6 +1253,10 @@
     <x:xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -1589,13 +1615,12 @@
     <x:col min="15" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <x:row r="1" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <x:c r="A1" s="70" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
     <x:row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <x:c r="B2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="2"/>
-      <x:c r="D2" s="2"/>
       <x:c r="E2" s="2"/>
       <x:c r="F2" s="2"/>
       <x:c r="G2" s="2"/>
@@ -1610,20 +1635,17 @@
       <x:c r="R2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <x:c r="B3" s="2"/>
-      <x:c r="C3" s="2"/>
-      <x:c r="D3" s="2"/>
       <x:c r="E3" s="2"/>
       <x:c r="F3" s="2"/>
       <x:c r="G3" s="2"/>
       <x:c r="H3" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I3" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J3" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K3" s="2"/>
       <x:c r="N3" s="3"/>
@@ -1673,14 +1695,14 @@
       <x:c r="E6" s="10"/>
       <x:c r="F6" s="11"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="69">
         <x:v>45894</x:v>
       </x:c>
       <x:c r="J6" s="13" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K6" s="69">
         <x:v>45898</x:v>
@@ -1724,7 +1746,7 @@
     <x:row r="9" spans="1:18" ht="17.45" customHeight="1" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <x:c r="B9" s="38"/>
       <x:c r="C9" s="42" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D9" s="43"/>
       <x:c r="E9" s="43"/>
@@ -1738,7 +1760,7 @@
     <x:row r="10" spans="1:18" ht="17.45" customHeight="1" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <x:c r="B10" s="38"/>
       <x:c r="C10" s="34" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D10" s="35"/>
       <x:c r="E10" s="35"/>
@@ -1771,7 +1793,7 @@
     <x:row r="12" spans="1:18" ht="17.45" customHeight="1" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <x:c r="B12" s="38"/>
       <x:c r="C12" s="34" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="35"/>
       <x:c r="E12" s="35"/>
@@ -1786,7 +1808,7 @@
     <x:row r="13" spans="1:18" ht="17.45" customHeight="1" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <x:c r="B13" s="38"/>
       <x:c r="C13" s="34" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D13" s="35"/>
       <x:c r="E13" s="35"/>
@@ -2063,7 +2085,7 @@
     </x:row>
     <x:row r="36" spans="1:18" ht="17.45" customHeight="1" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <x:c r="B36" s="48" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="51" t="s">
         <x:v>6</x:v>
@@ -2076,7 +2098,7 @@
       <x:c r="I36" s="52"/>
       <x:c r="J36" s="53"/>
       <x:c r="K36" s="19" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:18" ht="17.45" customHeight="1" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -2129,7 +2151,7 @@
     </x:row>
     <x:row r="41" spans="1:18" ht="17.45" customHeight="1" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <x:c r="B41" s="48" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C41" s="42"/>
       <x:c r="D41" s="43"/>
@@ -2324,7 +2346,7 @@
     <x:row r="156" ht="13.5" customHeight="1" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
   </x:sheetData>
   <x:mergeCells count="50">
-    <x:mergeCell ref="B2:K2"/>
+    <x:mergeCell ref="A1:D3"/>
     <x:mergeCell ref="B5:K5"/>
     <x:mergeCell ref="C6:D6"/>
     <x:mergeCell ref="G6:H6"/>
